--- a/Turma Home Jan2018/4° Sabado/Macros 1/Exer Macro Muda Cor.xlsx
+++ b/Turma Home Jan2018/4° Sabado/Macros 1/Exer Macro Muda Cor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jganj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Home Jan2018\4° Sabado\Macros 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0454595-BB05-47D3-B8BC-98343AE2C3BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1"/>
+        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -264,7 +271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2"/>
+        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -321,7 +334,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3"/>
+        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -662,12 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="D1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
